--- a/Resultados/Material + Estrutura/Template.xlsx
+++ b/Resultados/Material + Estrutura/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Estrutura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE6642C-43ED-427E-8334-78328ECC1972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDD2860-F969-4096-A635-70DA13892853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -480,7 +480,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,8 +623,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -635,10 +635,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -1272,8 +1269,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1522,7 +1519,7 @@
   <dimension ref="N1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1761,7 +1758,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1965,7 +1962,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2012,18 +2009,21 @@
       <c r="K1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="60" t="s">
+      <c r="M1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="22">
+        <f>'Matriz Confusão 2'!C3</f>
+        <v>0</v>
+      </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
@@ -2061,7 +2061,10 @@
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="55"/>
-      <c r="B3" s="18"/>
+      <c r="B3" s="18">
+        <f>'Matriz Confusão 2'!D3</f>
+        <v>0</v>
+      </c>
       <c r="C3" s="18">
         <v>1</v>
       </c>
@@ -2090,19 +2093,22 @@
       <c r="K3" s="21"/>
       <c r="M3" s="18">
         <f>COUNTIFS(D2:D42,N3,B2:B42,"&lt;&gt;0")</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="45" t="e">
         <f>M3/$M$6</f>
-        <v>0.4</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="55"/>
-      <c r="B4" s="18"/>
+      <c r="B4" s="18">
+        <f>'Matriz Confusão 2'!E3</f>
+        <v>0</v>
+      </c>
       <c r="C4" s="18">
         <v>2</v>
       </c>
@@ -2133,19 +2139,22 @@
       </c>
       <c r="M4" s="18">
         <f>COUNTIFS(D2:D42,N4,B2:B42,"&lt;&gt;0")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="45" t="e">
         <f t="shared" ref="O4:O5" si="4">M4/$M$6</f>
-        <v>6.6666666666666666E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="55"/>
-      <c r="B5" s="18"/>
+      <c r="B5" s="18">
+        <f>'Matriz Confusão 2'!F3</f>
+        <v>0</v>
+      </c>
       <c r="C5" s="18">
         <v>3</v>
       </c>
@@ -2176,19 +2185,22 @@
       </c>
       <c r="M5" s="18">
         <f>COUNTIFS(D2:D42,N5,B2:B42,"&lt;&gt;0")</f>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="45" t="e">
         <f t="shared" si="4"/>
-        <v>0.53333333333333333</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="55"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="18">
+        <f>'Matriz Confusão 2'!G3</f>
+        <v>0</v>
+      </c>
       <c r="C6" s="18">
         <v>4</v>
       </c>
@@ -2219,13 +2231,16 @@
       </c>
       <c r="M6" s="9">
         <f>SUM(M3:M5)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="56"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="18">
+        <f>'Matriz Confusão 2'!H3</f>
+        <v>0</v>
+      </c>
       <c r="C7" s="18">
         <v>5</v>
       </c>
@@ -2268,7 +2283,10 @@
       <c r="A9" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="22">
+        <f>'Matriz Confusão 2'!D4</f>
+        <v>0</v>
+      </c>
       <c r="C9" s="22">
         <v>1</v>
       </c>
@@ -2285,7 +2303,10 @@
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
-      <c r="B10" s="18"/>
+      <c r="B10" s="18">
+        <f>'Matriz Confusão 2'!C4</f>
+        <v>0</v>
+      </c>
       <c r="C10" s="18">
         <v>0</v>
       </c>
@@ -2308,7 +2329,10 @@
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="55"/>
-      <c r="B11" s="18"/>
+      <c r="B11" s="18">
+        <f>'Matriz Confusão 2'!E4</f>
+        <v>0</v>
+      </c>
       <c r="C11" s="18">
         <v>2</v>
       </c>
@@ -2331,7 +2355,10 @@
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="55"/>
-      <c r="B12" s="18"/>
+      <c r="B12" s="18">
+        <f>'Matriz Confusão 2'!F4</f>
+        <v>0</v>
+      </c>
       <c r="C12" s="18">
         <v>3</v>
       </c>
@@ -2354,7 +2381,10 @@
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="55"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="18">
+        <f>'Matriz Confusão 2'!G4</f>
+        <v>0</v>
+      </c>
       <c r="C13" s="18">
         <v>4</v>
       </c>
@@ -2376,8 +2406,11 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="18">
+        <f>'Matriz Confusão 2'!H4</f>
+        <v>0</v>
+      </c>
       <c r="C14" s="18">
         <v>5</v>
       </c>
@@ -2402,7 +2435,10 @@
       <c r="A16" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="22">
+        <f>'Matriz Confusão 2'!E5</f>
+        <v>0</v>
+      </c>
       <c r="C16" s="22">
         <v>2</v>
       </c>
@@ -2421,8 +2457,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="18">
+        <f>'Matriz Confusão 2'!C5</f>
+        <v>0</v>
+      </c>
       <c r="C17" s="18">
         <v>0</v>
       </c>
@@ -2444,8 +2483,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="61"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="18">
+        <f>'Matriz Confusão 2'!D5</f>
+        <v>0</v>
+      </c>
       <c r="C18" s="18">
         <v>1</v>
       </c>
@@ -2454,21 +2496,24 @@
         <v>0 (Nenhuma)</v>
       </c>
       <c r="E18" s="19" t="e">
-        <f t="shared" ref="E18:E21" si="10">ROUND(B18/SUM($B$16:$B$21)*100,0) &amp;"%"</f>
+        <f>ROUND(B18/SUM($B$16:$B$21)*100,0) &amp;"%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="26" t="str">
-        <f t="shared" ref="F18:F21" si="11">VLOOKUP(C18,$I$1:$K$7,2,FALSE)</f>
+        <f t="shared" ref="F18:F21" si="10">VLOOKUP(C18,$I$1:$K$7,2,FALSE)</f>
         <v>Aço</v>
       </c>
       <c r="G18" s="26">
-        <f t="shared" ref="G18:G21" si="12">VLOOKUP(C18,$I$1:$K$7,3,FALSE)</f>
+        <f t="shared" ref="G18:G21" si="11">VLOOKUP(C18,$I$1:$K$7,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="61"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="18">
+        <f>'Matriz Confusão 2'!F5</f>
+        <v>0</v>
+      </c>
       <c r="C19" s="18">
         <v>3</v>
       </c>
@@ -2477,21 +2522,24 @@
         <v>1 (Material, )</v>
       </c>
       <c r="E19" s="19" t="e">
+        <f>ROUND(B19/SUM($B$16:$B$21)*100,0) &amp;"%"</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F19" s="26" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="26" t="str">
+        <v>Betão Armado</v>
+      </c>
+      <c r="G19" s="26" t="str">
         <f t="shared" si="11"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G19" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>Pórtico</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="61"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="18">
+        <f>'Matriz Confusão 2'!G5</f>
+        <v>0</v>
+      </c>
       <c r="C20" s="18">
         <v>4</v>
       </c>
@@ -2500,21 +2548,24 @@
         <v>1 (Material, )</v>
       </c>
       <c r="E20" s="19" t="e">
+        <f>ROUND(B20/SUM($B$16:$B$21)*100,0) &amp;"%"</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F20" s="26" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="26" t="str">
+        <v>Betão Armado</v>
+      </c>
+      <c r="G20" s="26" t="str">
         <f t="shared" si="11"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G20" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>Tabuleiro simples/apoiado</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="59"/>
-      <c r="B21" s="18"/>
+      <c r="B21" s="18">
+        <f>'Matriz Confusão 2'!H5</f>
+        <v>0</v>
+      </c>
       <c r="C21" s="18">
         <v>5</v>
       </c>
@@ -2523,15 +2574,15 @@
         <v>1 (Material, )</v>
       </c>
       <c r="E21" s="19" t="e">
+        <f>ROUND(B21/SUM($B$16:$B$21)*100,0) &amp;"%"</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="26" t="str">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="26" t="str">
+        <v>Betão Armado</v>
+      </c>
+      <c r="G21" s="26" t="str">
         <f t="shared" si="11"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G21" s="26" t="str">
-        <f t="shared" si="12"/>
         <v>Vãos Multiplos</v>
       </c>
     </row>
@@ -2539,7 +2590,10 @@
       <c r="A23" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="22">
+        <f>'Matriz Confusão 2'!F6</f>
+        <v>0</v>
+      </c>
       <c r="C23" s="22">
         <v>3</v>
       </c>
@@ -2553,13 +2607,16 @@
         <v>Betão Armado</v>
       </c>
       <c r="G23" s="25" t="str">
-        <f t="shared" ref="G23" si="13">VLOOKUP(C23,$I$1:$K$6,3,FALSE)</f>
+        <f t="shared" ref="G23" si="12">VLOOKUP(C23,$I$1:$K$6,3,FALSE)</f>
         <v>Pórtico</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="55"/>
-      <c r="B24" s="18"/>
+      <c r="B24" s="18">
+        <f>'Matriz Confusão 2'!C6</f>
+        <v>0</v>
+      </c>
       <c r="C24" s="18">
         <v>0</v>
       </c>
@@ -2582,7 +2639,10 @@
     </row>
     <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="55"/>
-      <c r="B25" s="18"/>
+      <c r="B25" s="18">
+        <f>'Matriz Confusão 2'!D6</f>
+        <v>0</v>
+      </c>
       <c r="C25" s="18">
         <v>1</v>
       </c>
@@ -2595,17 +2655,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="26" t="str">
-        <f t="shared" ref="F25:F28" si="14">VLOOKUP(C25,$I$1:$K$7,2,FALSE)</f>
+        <f t="shared" ref="F25:F28" si="13">VLOOKUP(C25,$I$1:$K$7,2,FALSE)</f>
         <v>Aço</v>
       </c>
       <c r="G25" s="26">
-        <f t="shared" ref="G25:G28" si="15">VLOOKUP(C25,$I$1:$K$7,3,FALSE)</f>
+        <f t="shared" ref="G25:G28" si="14">VLOOKUP(C25,$I$1:$K$7,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="55"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="18">
+        <f>'Matriz Confusão 2'!E6</f>
+        <v>0</v>
+      </c>
       <c r="C26" s="18">
         <v>2</v>
       </c>
@@ -2618,17 +2681,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G26" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G26" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>Arco</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="55"/>
-      <c r="B27" s="18"/>
+      <c r="B27" s="18">
+        <f>'Matriz Confusão 2'!G6</f>
+        <v>0</v>
+      </c>
       <c r="C27" s="18">
         <v>4</v>
       </c>
@@ -2641,17 +2707,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G27" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G27" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>Tabuleiro simples/apoiado</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="56"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="18">
+        <f>'Matriz Confusão 2'!H6</f>
+        <v>0</v>
+      </c>
       <c r="C28" s="18">
         <v>5</v>
       </c>
@@ -2664,11 +2733,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="26" t="str">
+        <f t="shared" si="13"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G28" s="26" t="str">
         <f t="shared" si="14"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G28" s="26" t="str">
-        <f t="shared" si="15"/>
         <v>Vãos Multiplos</v>
       </c>
     </row>
@@ -2676,7 +2745,10 @@
       <c r="A30" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="22"/>
+      <c r="B30" s="22">
+        <f>'Matriz Confusão 2'!G7</f>
+        <v>0</v>
+      </c>
       <c r="C30" s="22">
         <v>4</v>
       </c>
@@ -2696,7 +2768,10 @@
     </row>
     <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="58"/>
-      <c r="B31" s="18"/>
+      <c r="B31" s="18">
+        <f>'Matriz Confusão 2'!C7</f>
+        <v>0</v>
+      </c>
       <c r="C31" s="18">
         <v>0</v>
       </c>
@@ -2719,7 +2794,10 @@
     </row>
     <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="58"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="18">
+        <f>'Matriz Confusão 2'!D7</f>
+        <v>0</v>
+      </c>
       <c r="C32" s="18">
         <v>1</v>
       </c>
@@ -2732,17 +2810,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F32" s="26" t="str">
-        <f t="shared" ref="F32:F35" si="16">VLOOKUP(C32,$I$1:$K$7,2,FALSE)</f>
+        <f t="shared" ref="F32:F35" si="15">VLOOKUP(C32,$I$1:$K$7,2,FALSE)</f>
         <v>Aço</v>
       </c>
       <c r="G32" s="26">
-        <f t="shared" ref="G32:G35" si="17">VLOOKUP(C32,$I$1:$K$7,3,FALSE)</f>
+        <f t="shared" ref="G32:G35" si="16">VLOOKUP(C32,$I$1:$K$7,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="58"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="18">
+        <f>'Matriz Confusão 2'!E7</f>
+        <v>0</v>
+      </c>
       <c r="C33" s="18">
         <v>2</v>
       </c>
@@ -2755,17 +2836,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F33" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G33" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G33" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>Arco</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="58"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="18">
+        <f>'Matriz Confusão 2'!F7</f>
+        <v>0</v>
+      </c>
       <c r="C34" s="18">
         <v>3</v>
       </c>
@@ -2778,17 +2862,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G34" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G34" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>Pórtico</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="59"/>
-      <c r="B35" s="18"/>
+      <c r="B35" s="18">
+        <f>'Matriz Confusão 2'!H7</f>
+        <v>0</v>
+      </c>
       <c r="C35" s="18">
         <v>5</v>
       </c>
@@ -2801,11 +2888,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F35" s="26" t="str">
+        <f t="shared" si="15"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G35" s="26" t="str">
         <f t="shared" si="16"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G35" s="26" t="str">
-        <f t="shared" si="17"/>
         <v>Vãos Multiplos</v>
       </c>
     </row>
@@ -2813,7 +2900,10 @@
       <c r="A37" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="22">
+        <f>'Matriz Confusão 2'!H8</f>
+        <v>0</v>
+      </c>
       <c r="C37" s="22">
         <v>5</v>
       </c>
@@ -2833,7 +2923,10 @@
     </row>
     <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="55"/>
-      <c r="B38" s="18"/>
+      <c r="B38" s="18">
+        <f>'Matriz Confusão 2'!C8</f>
+        <v>0</v>
+      </c>
       <c r="C38" s="18">
         <v>0</v>
       </c>
@@ -2856,7 +2949,10 @@
     </row>
     <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="55"/>
-      <c r="B39" s="18"/>
+      <c r="B39" s="18">
+        <f>'Matriz Confusão 2'!D8</f>
+        <v>0</v>
+      </c>
       <c r="C39" s="18">
         <v>1</v>
       </c>
@@ -2869,17 +2965,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="26" t="str">
-        <f t="shared" ref="F39:F42" si="18">VLOOKUP(C39,$I$1:$K$7,2,FALSE)</f>
+        <f t="shared" ref="F39:F42" si="17">VLOOKUP(C39,$I$1:$K$7,2,FALSE)</f>
         <v>Aço</v>
       </c>
       <c r="G39" s="26">
-        <f t="shared" ref="G39:G42" si="19">VLOOKUP(C39,$I$1:$K$7,3,FALSE)</f>
+        <f t="shared" ref="G39:G42" si="18">VLOOKUP(C39,$I$1:$K$7,3,FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="55"/>
-      <c r="B40" s="18"/>
+      <c r="B40" s="18">
+        <f>'Matriz Confusão 2'!E8</f>
+        <v>0</v>
+      </c>
       <c r="C40" s="18">
         <v>2</v>
       </c>
@@ -2892,17 +2991,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G40" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G40" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>Arco</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="55"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="18">
+        <f>'Matriz Confusão 2'!F8</f>
+        <v>0</v>
+      </c>
       <c r="C41" s="18">
         <v>3</v>
       </c>
@@ -2915,17 +3017,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G41" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G41" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>Pórtico</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="56"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="18">
+        <f>'Matriz Confusão 2'!G8</f>
+        <v>0</v>
+      </c>
       <c r="C42" s="18">
         <v>4</v>
       </c>
@@ -2938,23 +3043,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="26" t="str">
+        <f t="shared" si="17"/>
+        <v>Betão Armado</v>
+      </c>
+      <c r="G42" s="26" t="str">
         <f t="shared" si="18"/>
-        <v>Betão Armado</v>
-      </c>
-      <c r="G42" s="26" t="str">
-        <f t="shared" si="19"/>
         <v>Tabuleiro simples/apoiado</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:A42"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="A37:A42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2965,27 +3070,27 @@
   <sheetPr codeName="Folha7"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F3" sqref="F3"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
@@ -3018,7 +3123,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -3048,7 +3153,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3078,7 +3183,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -3108,7 +3213,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -3138,7 +3243,7 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -3168,7 +3273,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="39">
         <v>5</v>
       </c>
@@ -3198,7 +3303,7 @@
       </c>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -3238,7 +3343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -3278,7 +3383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>0</v>
       </c>
@@ -3318,7 +3423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -3358,7 +3463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>8</v>
       </c>
@@ -3398,7 +3503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
@@ -3439,7 +3544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="G14">
         <f>SUM(G8:G13)+B10</f>
